--- a/Analisis de Problemas Algoritmicos.xlsx
+++ b/Analisis de Problemas Algoritmicos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16950" windowHeight="6990" tabRatio="934" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16950" windowHeight="6990" tabRatio="949" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Est-Secuenciales-Ejer01" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="Hoja1" sheetId="9" r:id="rId9"/>
     <sheet name="CM-G1-T3.15" sheetId="10" r:id="rId10"/>
     <sheet name="G2-3.3" sheetId="11" r:id="rId11"/>
+    <sheet name="G2-T3.3" sheetId="12" r:id="rId12"/>
+    <sheet name="G2 T3." sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -294,8 +296,31 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>davidmp</author>
+  </authors>
+  <commentList>
+    <comment ref="J12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>=(E12)+(E12*0.1)+(E12*0.20)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="180">
   <si>
     <t>Ponderación</t>
   </si>
@@ -1042,6 +1067,96 @@
   </si>
   <si>
     <t>cantidad</t>
+  </si>
+  <si>
+    <t>Regalo</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Tarjeta</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>Anillo</t>
+  </si>
+  <si>
+    <t>Rango costo $</t>
+  </si>
+  <si>
+    <t>Monto</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Ramon</t>
+  </si>
+  <si>
+    <t>Chocolate/Tarjeta</t>
+  </si>
+  <si>
+    <t>Flores/Chocolate/Tarjeta</t>
+  </si>
+  <si>
+    <t>poliza</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Plan A</t>
+  </si>
+  <si>
+    <t>Plan B</t>
+  </si>
+  <si>
+    <t>CostoBase $</t>
+  </si>
+  <si>
+    <t>Carga</t>
+  </si>
+  <si>
+    <t>Alcohol</t>
+  </si>
+  <si>
+    <t>lentes</t>
+  </si>
+  <si>
+    <t>enfermedad</t>
+  </si>
+  <si>
+    <t>Edad &gt;40</t>
+  </si>
+  <si>
+    <t>Simulacion</t>
+  </si>
+  <si>
+    <t>Pepe</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Pagar(Costo)</t>
+  </si>
+  <si>
+    <t>Jaimito</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -1196,7 +1311,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1275,8 +1390,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1379,11 +1506,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1447,6 +1600,7 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1465,11 +1619,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1483,7 +1637,26 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1543,6 +1716,54 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>565604</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="39045" b="27603"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="104775"/>
+          <a:ext cx="4464050" cy="1562100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
+            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1907,6 +2128,46 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>131445</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect t="12686" b="34248"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="47625"/>
+          <a:ext cx="4703445" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2185,20 +2446,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2275,11 +2536,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="6">
         <f>SUM(D4:D7)</f>
         <v>18.75</v>
@@ -2372,7 +2633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B10:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2393,7 +2654,7 @@
       <c r="B11" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="62" t="s">
         <v>140</v>
       </c>
       <c r="D11" s="16" t="s">
@@ -2404,7 +2665,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="61"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="16" t="s">
         <v>144</v>
       </c>
@@ -2413,15 +2674,15 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="16"/>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="51" t="s">
         <v>149</v>
       </c>
       <c r="D15" s="45" t="s">
@@ -2471,6 +2732,378 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="H3:K15"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I3" s="16"/>
+      <c r="J3" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="65"/>
+    </row>
+    <row r="4" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I4" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="67"/>
+    </row>
+    <row r="5" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I5" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J5" s="27">
+        <v>10</v>
+      </c>
+      <c r="K5" s="27"/>
+    </row>
+    <row r="6" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I6" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J6" s="27">
+        <v>11</v>
+      </c>
+      <c r="K6" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="27">
+        <v>101</v>
+      </c>
+      <c r="K7" s="27">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J8" s="27">
+        <v>251</v>
+      </c>
+      <c r="K8" s="27"/>
+    </row>
+    <row r="11" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+    </row>
+    <row r="12" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="16">
+        <v>20</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="16">
+        <v>100</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H15" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="I15" s="16">
+        <v>200</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="H11:J11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I2" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I3" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" s="16">
+        <v>1200</v>
+      </c>
+      <c r="K3" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="M3" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I4" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" s="16">
+        <v>950</v>
+      </c>
+      <c r="K4" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="L4" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I6" s="70" t="s">
+        <v>172</v>
+      </c>
+      <c r="J6" s="70"/>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="I7" s="71">
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="72">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C11" s="16"/>
+      <c r="D11" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="73" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C12" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1200</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" s="16">
+        <v>60</v>
+      </c>
+      <c r="J12" s="16">
+        <f>(E12)+(IF(F12="S",E12*0.1,0))+(IF(F12="S",E12*0.2,0))</f>
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="16">
+        <v>950</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" s="16">
+        <v>30</v>
+      </c>
+      <c r="J13" s="16">
+        <f>E13+(E13*0.1)</f>
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" s="16">
+        <v>950</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" s="16">
+        <v>45</v>
+      </c>
+      <c r="J14" s="16">
+        <f>E14+(E14*0.35)</f>
+        <v>1282.5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C15" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1200</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="I15" s="16">
+        <v>20</v>
+      </c>
+      <c r="J15" s="16">
+        <f>E15+(E15*0.15)</f>
+        <v>1380</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I6:J6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2570,20 +3203,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2705,11 +3338,11 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="13">
         <f>SUM(D4:D10)</f>
         <v>15.049999999999999</v>
@@ -2909,36 +3542,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:10" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="56"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -3091,12 +3724,12 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="20">
         <f>SUM(E6:E12)</f>
         <v>14.649999999999999</v>
@@ -3193,7 +3826,7 @@
       <c r="R4" s="58"/>
     </row>
     <row r="5" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="59" t="s">
         <v>71</v>
       </c>
       <c r="K5" s="58" t="s">
@@ -3214,7 +3847,7 @@
       <c r="R5" s="58"/>
     </row>
     <row r="6" spans="9:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="I6" s="57"/>
+      <c r="I6" s="59"/>
       <c r="J6" s="31" t="s">
         <v>65</v>
       </c>
@@ -3255,7 +3888,7 @@
       <c r="O9" s="58"/>
     </row>
     <row r="10" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="59" t="s">
         <v>72</v>
       </c>
       <c r="K10" s="22" t="s">
@@ -3275,7 +3908,7 @@
       </c>
     </row>
     <row r="11" spans="9:18" x14ac:dyDescent="0.25">
-      <c r="I11" s="57"/>
+      <c r="I11" s="59"/>
       <c r="K11" s="26">
         <v>0.03</v>
       </c>
@@ -3419,12 +4052,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q4:R4"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="N9:O9"/>
@@ -3432,6 +4059,12 @@
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q4:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3573,15 +4206,15 @@
       </c>
     </row>
     <row r="12" spans="5:11" x14ac:dyDescent="0.25">
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="60" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60" t="s">
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="I12" s="60"/>
+      <c r="I12" s="61"/>
     </row>
     <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="G13" s="21" t="s">
